--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/CodeSystem/SzTinkhundlaCS</t>
+    <t>http://172.209.216.154:3447/fhir/CodeSystem/SzTinkhundlaCS</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,211 +138,355 @@
     <t>1</t>
   </si>
   <si>
+    <t>-99</t>
+  </si>
+  <si>
     <t>Unspecified</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>HHUKWINI</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>LOBAMBA</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>MADLANGEMPISI</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>MAPHALALENI</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>MAYIWANE</t>
   </si>
   <si>
-    <t>MBABANE_EAST</t>
+    <t>7</t>
   </si>
   <si>
     <t>MBABANE EAST</t>
   </si>
   <si>
-    <t>MBABANE_WEST</t>
+    <t>8</t>
   </si>
   <si>
     <t>MBABANE WEST</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>MHLANGATANE</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>NDZINGENI</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>NKHABA</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>NTFONJENI</t>
   </si>
   <si>
-    <t>PIGGS_PEAK</t>
+    <t>13</t>
   </si>
   <si>
     <t>PIGGS PEAK</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>SIPHOCOSINI</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>TIMPHISINI</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>DVOKODVWENI</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>GILGALI</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>LOMAHASHA</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>LUBULI</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>LUGONGOLWENI</t>
   </si>
   <si>
-    <t>MATSANJENI_NORTH</t>
+    <t>21</t>
   </si>
   <si>
     <t>MATSANJENI NORTH</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>MHLUME</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>MPOLONJENI</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>NKILONGO</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>SIPHOFANENI</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>SITHOBELA</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>KUKHANYENI</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>KWALUSENI</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>LAMGABHI</t>
   </si>
   <si>
-    <t>LOBAMBA_LOMDZALA</t>
+    <t>30</t>
   </si>
   <si>
     <t>LOBAMBA LOMDZALA</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>LUDZELUDZE</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>MAFUTSENI</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>MAHLANGATSHA</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>MANGCONGCO</t>
   </si>
   <si>
-    <t>MANZINI_NORTH</t>
+    <t>35</t>
   </si>
   <si>
     <t>MANZINI NORTH</t>
   </si>
   <si>
-    <t>MANZINI_SOUTH</t>
+    <t>36</t>
   </si>
   <si>
     <t>MANZINI SOUTH</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>MHLAMBANYATSI</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>MKHIWENI</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>MTFONGWANENI</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>NGWEMPISI</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>NHLAMBENI</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>NKOMIYAHLABA</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>NTONDOZI</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>PHONDO</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>GEGE</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>HOSEA</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>KUBUTA</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>KUMETHULA</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>MASEYISINI</t>
   </si>
   <si>
-    <t>MATSANJENI_SOUTH</t>
+    <t>50</t>
   </si>
   <si>
     <t>MATSANJENI SOUTH</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>MTSAMBAMA</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>NGUDZENI</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>NKWENE</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>SANDLENI</t>
   </si>
   <si>
-    <t>SHISELWENI_I</t>
+    <t>55</t>
   </si>
   <si>
     <t>SHISELWENI I</t>
   </si>
   <si>
-    <t>SHISELWENI_II</t>
+    <t>56</t>
   </si>
   <si>
     <t>SHISELWENI II</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>SIGWE</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>SOMNTONGO</t>
   </si>
   <si>
-    <t>ZOMBODZE_EMUVA</t>
+    <t>59</t>
   </si>
   <si>
     <t>ZOMBODZE EMUVA</t>
@@ -687,7 +831,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -696,10 +840,10 @@
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -708,10 +852,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -720,10 +864,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -732,10 +876,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -744,10 +888,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -756,10 +900,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -768,10 +912,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -780,10 +924,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -792,10 +936,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -804,10 +948,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -816,10 +960,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -828,10 +972,10 @@
         <v>40</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -840,10 +984,10 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -852,10 +996,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -864,10 +1008,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -876,10 +1020,10 @@
         <v>40</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -888,10 +1032,10 @@
         <v>40</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -900,10 +1044,10 @@
         <v>40</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -912,10 +1056,10 @@
         <v>40</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -924,10 +1068,10 @@
         <v>40</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -936,10 +1080,10 @@
         <v>40</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -948,10 +1092,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -960,10 +1104,10 @@
         <v>40</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -972,10 +1116,10 @@
         <v>40</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -984,10 +1128,10 @@
         <v>40</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -996,10 +1140,10 @@
         <v>40</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1008,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1020,10 +1164,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1032,10 +1176,10 @@
         <v>40</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1044,10 +1188,10 @@
         <v>40</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1056,10 +1200,10 @@
         <v>40</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1068,10 +1212,10 @@
         <v>40</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1080,10 +1224,10 @@
         <v>40</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1092,10 +1236,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1104,10 +1248,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1116,10 +1260,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1128,10 +1272,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1140,10 +1284,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1152,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1164,10 +1308,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1176,10 +1320,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1188,10 +1332,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1200,10 +1344,10 @@
         <v>40</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1212,10 +1356,10 @@
         <v>40</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1224,10 +1368,10 @@
         <v>40</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1236,10 +1380,10 @@
         <v>40</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1248,10 +1392,10 @@
         <v>40</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1260,10 +1404,10 @@
         <v>40</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1272,10 +1416,10 @@
         <v>40</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1284,10 +1428,10 @@
         <v>40</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1296,10 +1440,10 @@
         <v>40</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1308,10 +1452,10 @@
         <v>40</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1320,10 +1464,10 @@
         <v>40</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1332,10 +1476,10 @@
         <v>40</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1344,10 +1488,10 @@
         <v>40</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1356,10 +1500,10 @@
         <v>40</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1368,10 +1512,10 @@
         <v>40</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1380,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1392,10 +1536,10 @@
         <v>40</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="D61" s="2"/>
     </row>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-SzTinkhundlaCS.xlsx
+++ b/CodeSystem-SzTinkhundlaCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
